--- a/planilhas/ferramentas.xlsx
+++ b/planilhas/ferramentas.xlsx
@@ -168,12 +168,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -210,12 +216,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -262,11 +276,12 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.85"/>
   </cols>
   <sheetData>
@@ -329,22 +344,22 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -416,31 +431,31 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/planilhas/ferramentas.xlsx
+++ b/planilhas/ferramentas.xlsx
@@ -493,12 +493,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">DeWalt </t>
+          <t xml:space="preserve">DEWALT </t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>110</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -508,22 +508,22 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>45003994</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>metricas</t>
+          <t>METRICAS</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Chaves combinadas</t>
+          <t>CHAVES COMBINADAS</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>Aço Rápido</t>
+          <t>AÇO RÁPIDO</t>
         </is>
       </c>
     </row>

--- a/planilhas/ferramentas.xlsx
+++ b/planilhas/ferramentas.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A6:I6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -469,10 +469,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:I6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -715,7 +715,53 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="3"/>
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>YY93w-8795</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>FER-EEID</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Makita </t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>XXXXXXXX</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>SSSSS</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>METRICAS</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>CHAVES COMBINADAS</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>Aço Rápido</t>
+        </is>
+      </c>
+    </row>
     <row r="1048575" ht="12.8" customHeight="1" s="3"/>
     <row r="1048576" ht="12.8" customHeight="1" s="3"/>
   </sheetData>
